--- a/Industry/201612-201908/HKD/MILLION/Analysis_94_13.1.3 - Miscellaneous Houseware_HKD_MILLION_201612-201908.xlsx
+++ b/Industry/201612-201908/HKD/MILLION/Analysis_94_13.1.3 - Miscellaneous Houseware_HKD_MILLION_201612-201908.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="11316" windowWidth="19920" xWindow="2304" yWindow="1644"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="11460" windowWidth="18480" xWindow="348" yWindow="360"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="table1" sheetId="1" state="visible" r:id="rId1"/>
@@ -26,7 +26,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="IMbyEuropeasOrigin" sheetId="18" state="visible" r:id="rId18"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DXbyproduct" sheetId="19" state="visible" r:id="rId19"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TXbyproduct" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="IMbyproduct" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RXbyproduct" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="IMbyproduct" sheetId="22" state="visible" r:id="rId22"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -87,7 +88,7 @@
     <t>Re-exports Quantity</t>
   </si>
   <si>
-    <t>Imports by Origin Quantity</t>
+    <t>Imports Quantity</t>
   </si>
   <si>
     <t>201612_% Share of overall DX</t>
@@ -18936,6 +18937,428 @@
         <v>8</v>
       </c>
       <c r="J1" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="B2" t="n">
+        <v>422.656</v>
+      </c>
+      <c r="C2" t="n">
+        <v>418.102</v>
+      </c>
+      <c r="D2" t="n">
+        <v>-1.077</v>
+      </c>
+      <c r="E2" t="n">
+        <v>335.166</v>
+      </c>
+      <c r="F2" t="n">
+        <v>541.413</v>
+      </c>
+      <c r="G2" t="n">
+        <v>29.493</v>
+      </c>
+      <c r="H2" t="n">
+        <v>343.467</v>
+      </c>
+      <c r="I2" t="n">
+        <v>2.477</v>
+      </c>
+      <c r="J2" t="n">
+        <v>100</v>
+      </c>
+      <c r="K2" t="n">
+        <v>100</v>
+      </c>
+      <c r="L2" t="n">
+        <v>100</v>
+      </c>
+      <c r="M2" t="n">
+        <v>100</v>
+      </c>
+      <c r="N2" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="B3" t="n">
+        <v>178.311</v>
+      </c>
+      <c r="C3" t="n">
+        <v>226.465</v>
+      </c>
+      <c r="D3" t="n">
+        <v>27.006</v>
+      </c>
+      <c r="E3" t="n">
+        <v>216.812</v>
+      </c>
+      <c r="F3" t="n">
+        <v>359.407</v>
+      </c>
+      <c r="G3" t="n">
+        <v>58.703</v>
+      </c>
+      <c r="H3" t="n">
+        <v>216.105</v>
+      </c>
+      <c r="I3" t="n">
+        <v>-0.326</v>
+      </c>
+      <c r="J3" t="n">
+        <v>42.188</v>
+      </c>
+      <c r="K3" t="n">
+        <v>54.165</v>
+      </c>
+      <c r="L3" t="n">
+        <v>64.688</v>
+      </c>
+      <c r="M3" t="n">
+        <v>66.383</v>
+      </c>
+      <c r="N3" t="n">
+        <v>62.919</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="B4" t="n">
+        <v>46.696</v>
+      </c>
+      <c r="C4" t="n">
+        <v>22.925</v>
+      </c>
+      <c r="D4" t="n">
+        <v>-50.906</v>
+      </c>
+      <c r="E4" t="n">
+        <v>18.751</v>
+      </c>
+      <c r="F4" t="n">
+        <v>38.985</v>
+      </c>
+      <c r="G4" t="n">
+        <v>70.056</v>
+      </c>
+      <c r="H4" t="n">
+        <v>39.828</v>
+      </c>
+      <c r="I4" t="n">
+        <v>112.412</v>
+      </c>
+      <c r="J4" t="n">
+        <v>11.048</v>
+      </c>
+      <c r="K4" t="n">
+        <v>5.483</v>
+      </c>
+      <c r="L4" t="n">
+        <v>5.594</v>
+      </c>
+      <c r="M4" t="n">
+        <v>7.201</v>
+      </c>
+      <c r="N4" t="n">
+        <v>11.596</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="B5" t="n">
+        <v>74.123</v>
+      </c>
+      <c r="C5" t="n">
+        <v>63.243</v>
+      </c>
+      <c r="D5" t="n">
+        <v>-14.678</v>
+      </c>
+      <c r="E5" t="n">
+        <v>35.27</v>
+      </c>
+      <c r="F5" t="n">
+        <v>51.96</v>
+      </c>
+      <c r="G5" t="n">
+        <v>-17.84</v>
+      </c>
+      <c r="H5" t="n">
+        <v>39.502</v>
+      </c>
+      <c r="I5" t="n">
+        <v>12.001</v>
+      </c>
+      <c r="J5" t="n">
+        <v>17.537</v>
+      </c>
+      <c r="K5" t="n">
+        <v>15.126</v>
+      </c>
+      <c r="L5" t="n">
+        <v>10.523</v>
+      </c>
+      <c r="M5" t="n">
+        <v>9.597</v>
+      </c>
+      <c r="N5" t="n">
+        <v>11.501</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="B6" t="n">
+        <v>74.383</v>
+      </c>
+      <c r="C6" t="n">
+        <v>63.371</v>
+      </c>
+      <c r="D6" t="n">
+        <v>-14.805</v>
+      </c>
+      <c r="E6" t="n">
+        <v>39.918</v>
+      </c>
+      <c r="F6" t="n">
+        <v>60.211</v>
+      </c>
+      <c r="G6" t="n">
+        <v>-4.986</v>
+      </c>
+      <c r="H6" t="n">
+        <v>28.86</v>
+      </c>
+      <c r="I6" t="n">
+        <v>-27.703</v>
+      </c>
+      <c r="J6" t="n">
+        <v>17.599</v>
+      </c>
+      <c r="K6" t="n">
+        <v>15.157</v>
+      </c>
+      <c r="L6" t="n">
+        <v>11.91</v>
+      </c>
+      <c r="M6" t="n">
+        <v>11.121</v>
+      </c>
+      <c r="N6" t="n">
+        <v>8.403</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="B7" t="n">
+        <v>28.573</v>
+      </c>
+      <c r="C7" t="n">
+        <v>23.511</v>
+      </c>
+      <c r="D7" t="n">
+        <v>-17.718</v>
+      </c>
+      <c r="E7" t="n">
+        <v>15.776</v>
+      </c>
+      <c r="F7" t="n">
+        <v>20.73</v>
+      </c>
+      <c r="G7" t="n">
+        <v>-11.826</v>
+      </c>
+      <c r="H7" t="n">
+        <v>13.242</v>
+      </c>
+      <c r="I7" t="n">
+        <v>-16.059</v>
+      </c>
+      <c r="J7" t="n">
+        <v>6.76</v>
+      </c>
+      <c r="K7" t="n">
+        <v>5.623</v>
+      </c>
+      <c r="L7" t="n">
+        <v>4.707</v>
+      </c>
+      <c r="M7" t="n">
+        <v>3.829</v>
+      </c>
+      <c r="N7" t="n">
+        <v>3.856</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="B8" t="n">
+        <v>10.366</v>
+      </c>
+      <c r="C8" t="n">
+        <v>11.888</v>
+      </c>
+      <c r="D8" t="n">
+        <v>14.682</v>
+      </c>
+      <c r="E8" t="n">
+        <v>5.744</v>
+      </c>
+      <c r="F8" t="n">
+        <v>6.612</v>
+      </c>
+      <c r="G8" t="n">
+        <v>-44.384</v>
+      </c>
+      <c r="H8" t="n">
+        <v>4.708</v>
+      </c>
+      <c r="I8" t="n">
+        <v>-18.042</v>
+      </c>
+      <c r="J8" t="n">
+        <v>2.453</v>
+      </c>
+      <c r="K8" t="n">
+        <v>2.843</v>
+      </c>
+      <c r="L8" t="n">
+        <v>1.714</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1.221</v>
+      </c>
+      <c r="N8" t="n">
+        <v>1.371</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="B9" t="n">
+        <v>10.204</v>
+      </c>
+      <c r="C9" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="D9" t="n">
+        <v>-34.34</v>
+      </c>
+      <c r="E9" t="n">
+        <v>2.895</v>
+      </c>
+      <c r="F9" t="n">
+        <v>3.508</v>
+      </c>
+      <c r="G9" t="n">
+        <v>-47.637</v>
+      </c>
+      <c r="H9" t="n">
+        <v>1.221</v>
+      </c>
+      <c r="I9" t="n">
+        <v>-57.824</v>
+      </c>
+      <c r="J9" t="n">
+        <v>2.414</v>
+      </c>
+      <c r="K9" t="n">
+        <v>1.602</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0.864</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0.648</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0.356</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane activePane="bottomRight" state="frozen" topLeftCell="B2" xSplit="1" ySplit="1"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection activeCell="A1" pane="bottomRight" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4" outlineLevelCol="0"/>
+  <cols>
+    <col bestFit="1" customWidth="1" max="1" min="1" width="6.33203125"/>
+    <col bestFit="1" customWidth="1" max="9" min="2" width="8"/>
+  </cols>
+  <sheetData>
+    <row customFormat="1" customHeight="1" ht="57.6" r="1" s="3" spans="1:14">
+      <c r="A1" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>170</v>
       </c>
       <c r="K1" s="2" t="s">
